--- a/分红汇总.xlsx
+++ b/分红汇总.xlsx
@@ -8,16 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/c19/Documents/projects/基金数据/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD16BC6-A2EF-3147-857E-A7BF8D2F9BAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A676B262-FBF2-464E-A62F-715A545CA7CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{4E3C72B7-ED2A-A44F-B6ED-AF4F9FE79679}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="1" activeTab="8" xr2:uid="{4E3C72B7-ED2A-A44F-B6ED-AF4F9FE79679}"/>
   </bookViews>
   <sheets>
     <sheet name="宝盈核心优势混合C" sheetId="1" r:id="rId1"/>
-    <sheet name="华夏回报混合A" sheetId="5" r:id="rId2"/>
-    <sheet name="国联安鑫安灵活配置混合" sheetId="3" r:id="rId3"/>
-    <sheet name="圆信永丰双利A" sheetId="4" r:id="rId4"/>
-    <sheet name="华商红利优选混合" sheetId="2" r:id="rId5"/>
+    <sheet name="富国天盛灵活配置基金" sheetId="7" r:id="rId2"/>
+    <sheet name="华夏回报混合A" sheetId="5" r:id="rId3"/>
+    <sheet name="国联安鑫安灵活配置混合" sheetId="3" r:id="rId4"/>
+    <sheet name="圆信永丰双利A" sheetId="4" r:id="rId5"/>
+    <sheet name="华商红利优选混合" sheetId="2" r:id="rId6"/>
+    <sheet name="泰达宏利溢利债券A" sheetId="6" r:id="rId7"/>
+    <sheet name="华夏回报二号混合" sheetId="9" r:id="rId8"/>
+    <sheet name="易方达积极成长混合" sheetId="10" r:id="rId9"/>
+    <sheet name="对比表" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="79">
   <si>
     <t>2021年</t>
   </si>
@@ -171,6 +176,150 @@
   </si>
   <si>
     <t>2003年 汇总</t>
+  </si>
+  <si>
+    <t>圆信永丰双利A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000824</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.20653675825581852</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6143948532368315</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏回报混合A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>002001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.13784870947392905</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均年化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立年份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年均分红次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.046352583586627</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝盈核心优势混合C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000241</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.13561093453983633</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.242066171505739</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国天盛灵活配置基金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000634</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8120104438642297</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.13226746378556714</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无分红年份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016,2012,2009,2005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达积极成长混合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.18632443262375176</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9396135265700483</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015,2012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -225,11 +374,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EEB1CC-EBAA-7044-BE67-E5EDF00F5AA7}">
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B86"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B86" sqref="B14:B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2"/>
@@ -566,7 +718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="2" spans="1:2" outlineLevel="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -574,7 +726,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="3" spans="1:2" outlineLevel="2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -582,7 +734,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="4" spans="1:2" outlineLevel="2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -590,7 +742,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="5" spans="1:2" outlineLevel="2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -598,7 +750,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="6" spans="1:2" outlineLevel="2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -606,7 +758,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="7" spans="1:2" outlineLevel="2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -614,7 +766,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="8" spans="1:2" outlineLevel="2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -622,7 +774,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="9" spans="1:2" outlineLevel="2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -630,7 +782,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="10" spans="1:2" outlineLevel="2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -638,7 +790,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="11" spans="1:2" outlineLevel="2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -646,7 +798,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="12" spans="1:2" outlineLevel="2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -654,7 +806,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="13" spans="1:2" outlineLevel="2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -662,7 +814,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:2" outlineLevel="1" collapsed="1">
+    <row r="14" spans="1:2" outlineLevel="1">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -671,7 +823,7 @@
         <v>0.19999999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="15" spans="1:2" outlineLevel="2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -679,7 +831,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="16" spans="1:2" outlineLevel="2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -687,7 +839,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="17" spans="1:2" outlineLevel="2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -695,7 +847,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="18" spans="1:2" outlineLevel="2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -703,7 +855,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="19" spans="1:2" outlineLevel="2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -711,7 +863,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="20" spans="1:2" outlineLevel="2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -719,7 +871,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="21" spans="1:2" outlineLevel="2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -727,7 +879,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="22" spans="1:2" outlineLevel="2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -735,7 +887,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="23" spans="1:2" outlineLevel="2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -743,7 +895,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="24" spans="1:2" outlineLevel="2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -751,7 +903,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:2" outlineLevel="1" collapsed="1">
+    <row r="25" spans="1:2" outlineLevel="1">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -760,7 +912,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="26" spans="1:2" outlineLevel="2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -768,7 +920,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="27" spans="1:2" outlineLevel="2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -776,7 +928,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="28" spans="1:2" outlineLevel="2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -784,7 +936,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="29" spans="1:2" outlineLevel="2">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -792,7 +944,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="30" spans="1:2" outlineLevel="2">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -800,7 +952,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="31" spans="1:2" outlineLevel="2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -808,7 +960,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="32" spans="1:2" outlineLevel="2">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -816,7 +968,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="33" spans="1:2" outlineLevel="2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -824,7 +976,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:2" outlineLevel="1" collapsed="1">
+    <row r="34" spans="1:2" outlineLevel="1">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
@@ -833,7 +985,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="35" spans="1:2" outlineLevel="2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -841,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" outlineLevel="1" collapsed="1">
+    <row r="36" spans="1:2" outlineLevel="1">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -850,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="37" spans="1:2" outlineLevel="2">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -858,7 +1010,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="38" spans="1:2" outlineLevel="2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -866,7 +1018,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="39" spans="1:2" outlineLevel="2">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -874,7 +1026,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="40" spans="1:2" outlineLevel="2">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -882,7 +1034,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="41" spans="1:2" outlineLevel="2">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -890,7 +1042,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="42" spans="1:2" outlineLevel="2">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -898,7 +1050,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="43" spans="1:2" outlineLevel="1" collapsed="1">
+    <row r="43" spans="1:2" outlineLevel="1">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -907,7 +1059,7 @@
         <v>5.1000000000000004E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="44" spans="1:2" outlineLevel="2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -915,7 +1067,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="45" spans="1:2" outlineLevel="2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -923,7 +1075,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="46" spans="1:2" outlineLevel="2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -931,7 +1083,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="47" spans="1:2" outlineLevel="2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -939,7 +1091,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="48" spans="1:2" outlineLevel="2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -947,7 +1099,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="49" spans="1:2" outlineLevel="2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -955,7 +1107,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="50" spans="1:2" outlineLevel="2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -963,7 +1115,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="51" spans="1:2" outlineLevel="2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -971,7 +1123,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="52" spans="1:2" outlineLevel="2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -979,7 +1131,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="53" spans="1:2" outlineLevel="2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -987,7 +1139,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="54" spans="1:2" outlineLevel="2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -995,7 +1147,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="55" spans="1:2" outlineLevel="2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1003,7 +1155,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="56" spans="1:2" outlineLevel="1" collapsed="1">
+    <row r="56" spans="1:2" outlineLevel="1">
       <c r="A56" s="1" t="s">
         <v>14</v>
       </c>
@@ -1012,7 +1164,7 @@
         <v>0.11999999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="57" spans="1:2" outlineLevel="2">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1020,7 +1172,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="58" spans="1:2" outlineLevel="2">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1028,7 +1180,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="59" spans="1:2" outlineLevel="2">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1036,7 +1188,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="60" spans="1:2" outlineLevel="2">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1044,7 +1196,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="61" spans="1:2" outlineLevel="2">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1052,7 +1204,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="62" spans="1:2" outlineLevel="2">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1060,7 +1212,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="63" spans="1:2" outlineLevel="2">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1068,7 +1220,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="64" spans="1:2" outlineLevel="2">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1076,7 +1228,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="65" spans="1:2" outlineLevel="2">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1084,7 +1236,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="66" spans="1:2" outlineLevel="2">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -1092,7 +1244,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="67" spans="1:2" outlineLevel="2">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1100,7 +1252,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="68" spans="1:2" outlineLevel="2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -1108,7 +1260,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="69" spans="1:2" outlineLevel="1" collapsed="1">
+    <row r="69" spans="1:2" outlineLevel="1">
       <c r="A69" s="1" t="s">
         <v>15</v>
       </c>
@@ -1117,7 +1269,7 @@
         <v>0.44000000000000011</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="70" spans="1:2" outlineLevel="2">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1277,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="71" spans="1:2" outlineLevel="2">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -1133,7 +1285,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="72" spans="1:2" outlineLevel="2">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -1141,7 +1293,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="73" spans="1:2" outlineLevel="2">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -1149,7 +1301,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="74" spans="1:2" outlineLevel="2">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -1157,7 +1309,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="75" spans="1:2" outlineLevel="2">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -1165,7 +1317,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="76" spans="1:2" outlineLevel="2">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -1173,7 +1325,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="77" spans="1:2" outlineLevel="2">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -1181,7 +1333,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="78" spans="1:2" outlineLevel="2">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -1189,7 +1341,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="79" spans="1:2" outlineLevel="2">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -1197,7 +1349,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="80" spans="1:2" outlineLevel="2">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -1205,7 +1357,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="81" spans="1:2" outlineLevel="2">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1365,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="82" spans="1:2" outlineLevel="1" collapsed="1">
+    <row r="82" spans="1:2" outlineLevel="1">
       <c r="A82" s="1" t="s">
         <v>16</v>
       </c>
@@ -1222,7 +1374,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="83" spans="1:2" outlineLevel="2">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -1230,7 +1382,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="84" spans="1:2" outlineLevel="2">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1390,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" outlineLevel="2">
+    <row r="85" spans="1:2" outlineLevel="2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -1246,7 +1398,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" outlineLevel="1" collapsed="1">
+    <row r="86" spans="1:2" outlineLevel="1">
       <c r="A86" s="1" t="s">
         <v>17</v>
       </c>
@@ -1262,6 +1414,150 @@
       <c r="B87">
         <f>SUBTOTAL(9,B2:B85)</f>
         <v>1.4270000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A805F784-D09D-7B44-805F-3C8E115EC636}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="23.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1271,11 +1567,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8C76E9-723E-0943-95E7-E5CA4FA55DF6}">
-  <dimension ref="A1:B134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F18DF9D-BCF7-8640-9167-AE0865F39A6D}">
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2"/>
@@ -1293,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.4999999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" hidden="1" outlineLevel="2">
@@ -1301,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>1.4999999999999999E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" hidden="1" outlineLevel="2">
@@ -1309,190 +1605,193 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A5" t="s">
-        <v>0</v>
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>0.03</v>
+        <f>SUBTOTAL(9,B2:B4)</f>
+        <v>0.27999999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>1.4999999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>1.4999999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A10" t="s">
-        <v>0</v>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>1.4999999999999999E-2</v>
+        <f>SUBTOTAL(9,B6:B9)</f>
+        <v>0.32</v>
       </c>
     </row>
     <row r="11" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>1.4999999999999999E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>1.4999999999999999E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A14" t="s">
-        <v>0</v>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
+        <f>SUBTOTAL(9,B11:B13)</f>
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A15" t="s">
+        <v>20</v>
       </c>
       <c r="B15">
-        <f>SUBTOTAL(9,B2:B14)</f>
-        <v>0.28500000000000003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>1.4999999999999999E-2</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A19" t="s">
-        <v>1</v>
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>0.03</v>
+        <f>SUBTOTAL(9,B15:B18)</f>
+        <v>0.11799999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>1.4999999999999999E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>0.03</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="23" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A24" t="s">
-        <v>1</v>
+    <row r="24" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>0.03</v>
+        <f>SUBTOTAL(9,B20:B23)</f>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B25">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A26" t="s">
+        <v>4</v>
       </c>
       <c r="B26">
-        <f>SUBTOTAL(9,B16:B25)</f>
-        <v>0.21000000000000002</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="27" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27">
         <v>1.4999999999999999E-2</v>
@@ -1500,876 +1799,86 @@
     </row>
     <row r="28" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A29" t="s">
-        <v>2</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A29" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B29">
-        <v>1.4999999999999999E-2</v>
+        <f>SUBTOTAL(9,B25:B28)</f>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B30">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A31" t="s">
+        <v>5</v>
       </c>
       <c r="B31">
-        <f>SUBTOTAL(9,B27:B30)</f>
-        <v>0.06</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>1.4999999999999999E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="33" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B33">
-        <v>1.4999999999999999E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" outlineLevel="1" collapsed="1">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B34">
-        <f>SUBTOTAL(9,B32:B33)</f>
-        <v>0.03</v>
+        <f>SUBTOTAL(9,B30:B33)</f>
+        <v>0.26600000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B35">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A36" t="s">
-        <v>3</v>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A36" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B36">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A37" t="s">
-        <v>3</v>
+        <f>SUBTOTAL(9,B35:B35)</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B37">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43">
-        <f>SUBTOTAL(9,B35:B42)</f>
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45">
-        <f>SUBTOTAL(9,B44:B44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50">
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51">
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52">
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53">
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59">
-        <v>2.75E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60">
-        <v>2.75E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61">
-        <f>SUBTOTAL(9,B46:B60)</f>
-        <v>0.34500000000000003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62">
-        <v>2.75E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63">
-        <v>2.75E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A64" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A66" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A68" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A70" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70">
-        <f>SUBTOTAL(9,B62:B69)</f>
-        <v>0.23499999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A75" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B76">
-        <f>SUBTOTAL(9,B71:B75)</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A77" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A78" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B78">
-        <f>SUBTOTAL(9,B77:B77)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A80" t="s">
-        <v>24</v>
-      </c>
-      <c r="B80">
-        <v>2.75E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A81" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B81">
-        <f>SUBTOTAL(9,B79:B80)</f>
-        <v>5.7499999999999996E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A82" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A83" t="s">
-        <v>25</v>
-      </c>
-      <c r="B83">
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A84" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B84">
-        <f>SUBTOTAL(9,B82:B83)</f>
-        <v>4.7500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A85" t="s">
-        <v>26</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A86" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B86">
-        <f>SUBTOTAL(9,B85:B85)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A87" t="s">
-        <v>27</v>
-      </c>
-      <c r="B87">
-        <v>4.1399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A88" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B88">
-        <f>SUBTOTAL(9,B87:B87)</f>
-        <v>4.1399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A89" t="s">
-        <v>28</v>
-      </c>
-      <c r="B89">
-        <v>0.30399999999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A90" t="s">
-        <v>28</v>
-      </c>
-      <c r="B90">
-        <v>3.3300000000000003E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A91" t="s">
-        <v>28</v>
-      </c>
-      <c r="B91">
-        <v>3.0599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A92" t="s">
-        <v>28</v>
-      </c>
-      <c r="B92">
-        <v>6.1199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A93" t="s">
-        <v>28</v>
-      </c>
-      <c r="B93">
-        <v>3.0599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A94" t="s">
-        <v>28</v>
-      </c>
-      <c r="B94">
-        <v>6.1199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A95" t="s">
-        <v>28</v>
-      </c>
-      <c r="B95">
-        <v>0.30599999999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A96" t="s">
-        <v>28</v>
-      </c>
-      <c r="B96">
-        <v>0.12239999999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A97" t="s">
-        <v>28</v>
-      </c>
-      <c r="B97">
-        <v>2.7900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A98" t="s">
-        <v>28</v>
-      </c>
-      <c r="B98">
-        <v>2.7900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A99" t="s">
-        <v>28</v>
-      </c>
-      <c r="B99">
-        <v>5.04E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A100" t="s">
-        <v>28</v>
-      </c>
-      <c r="B100">
-        <v>5.04E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A101" t="s">
-        <v>28</v>
-      </c>
-      <c r="B101">
-        <v>5.04E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A102" t="s">
-        <v>28</v>
-      </c>
-      <c r="B102">
-        <v>5.04E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A103" t="s">
-        <v>28</v>
-      </c>
-      <c r="B103">
-        <v>5.04E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A104" t="s">
-        <v>28</v>
-      </c>
-      <c r="B104">
-        <v>5.04E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A105" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B105">
-        <f>SUBTOTAL(9,B89:B104)</f>
-        <v>1.3074999999999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A106" t="s">
-        <v>29</v>
-      </c>
-      <c r="B106">
-        <v>5.04E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A107" t="s">
-        <v>29</v>
-      </c>
-      <c r="B107">
-        <v>5.04E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A108" t="s">
-        <v>29</v>
-      </c>
-      <c r="B108">
-        <v>5.04E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A109" t="s">
-        <v>29</v>
-      </c>
-      <c r="B109">
-        <v>2.52E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A110" t="s">
-        <v>29</v>
-      </c>
-      <c r="B110">
-        <v>2.52E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A111" t="s">
-        <v>29</v>
-      </c>
-      <c r="B111">
-        <v>5.04E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A112" t="s">
-        <v>29</v>
-      </c>
-      <c r="B112">
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A113" t="s">
-        <v>29</v>
-      </c>
-      <c r="B113">
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A114" t="s">
-        <v>29</v>
-      </c>
-      <c r="B114">
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A115" t="s">
-        <v>29</v>
-      </c>
-      <c r="B115">
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A116" t="s">
-        <v>29</v>
-      </c>
-      <c r="B116">
-        <v>6.7500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A117" t="s">
-        <v>29</v>
-      </c>
-      <c r="B117">
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A118" t="s">
-        <v>29</v>
-      </c>
-      <c r="B118">
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A119" t="s">
-        <v>29</v>
-      </c>
-      <c r="B119">
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A120" t="s">
-        <v>29</v>
-      </c>
-      <c r="B120">
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A121" t="s">
-        <v>29</v>
-      </c>
-      <c r="B121">
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A122" t="s">
-        <v>29</v>
-      </c>
-      <c r="B122">
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A123" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B123">
-        <f>SUBTOTAL(9,B106:B122)</f>
-        <v>0.5445000000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A124" t="s">
-        <v>30</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A125" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B125">
-        <f>SUBTOTAL(9,B124:B124)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A126" t="s">
-        <v>31</v>
-      </c>
-      <c r="B126">
-        <v>1.9800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A127" t="s">
-        <v>31</v>
-      </c>
-      <c r="B127">
-        <v>1.9800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A128" t="s">
-        <v>31</v>
-      </c>
-      <c r="B128">
-        <v>1.9800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A129" t="s">
-        <v>31</v>
-      </c>
-      <c r="B129">
-        <v>1.9800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A130" t="s">
-        <v>31</v>
-      </c>
-      <c r="B130">
-        <v>1.9800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A131" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B131">
-        <f>SUBTOTAL(9,B126:B130)</f>
-        <v>9.9000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A132" t="s">
-        <v>32</v>
-      </c>
-      <c r="B132">
-        <v>1.9800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A133" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B133">
-        <f>SUBTOTAL(9,B132:B132)</f>
-        <v>1.9800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B134">
-        <f>SUBTOTAL(9,B2:B132)</f>
-        <v>3.5391999999999983</v>
+        <f>SUBTOTAL(9,B2:B35)</f>
+        <v>1.2930000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -2379,11 +1888,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069001BC-1FCE-704F-829B-E2D997DAE969}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8C76E9-723E-0943-95E7-E5CA4FA55DF6}">
+  <dimension ref="A1:B134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2"/>
@@ -2401,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.104</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" hidden="1" outlineLevel="2">
@@ -2409,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0.122</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" hidden="1" outlineLevel="2">
@@ -2417,159 +1926,1067 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A5" t="s">
+        <v>0</v>
       </c>
       <c r="B5">
-        <f>SUBTOTAL(9,B2:B4)</f>
-        <v>0.35099999999999998</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.182</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.13300000000000001</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>6.8000000000000005E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A10" t="s">
+        <v>0</v>
       </c>
       <c r="B10">
-        <f>SUBTOTAL(9,B6:B9)</f>
-        <v>0.46600000000000003</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A12" t="s">
+        <v>0</v>
       </c>
       <c r="B12">
-        <f>SUBTOTAL(9,B11:B11)</f>
-        <v>0.13</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A14" t="s">
+        <v>0</v>
       </c>
       <c r="B14">
-        <f>SUBTOTAL(9,B13:B13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A15" t="s">
-        <v>3</v>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>5.0999999999999997E-2</v>
+        <f>SUBTOTAL(9,B2:B14)</f>
+        <v>0.28500000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A17" t="s">
+        <v>1</v>
       </c>
       <c r="B17">
-        <f>SUBTOTAL(9,B15:B16)</f>
-        <v>0.11499999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A19" t="s">
+        <v>1</v>
       </c>
       <c r="B19">
-        <f>SUBTOTAL(9,B18:B18)</f>
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="20" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <f>SUBTOTAL(9,B16:B25)</f>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <f>SUBTOTAL(9,B27:B30)</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <f>SUBTOTAL(9,B32:B33)</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <f>SUBTOTAL(9,B35:B42)</f>
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45">
+        <f>SUBTOTAL(9,B44:B44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A46" t="s">
         <v>5</v>
       </c>
-      <c r="B20">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A21" s="1" t="s">
+      <c r="B46">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B21">
-        <f>SUBTOTAL(9,B20:B20)</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="B61">
+        <f>SUBTOTAL(9,B46:B60)</f>
+        <v>0.34500000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70">
+        <f>SUBTOTAL(9,B62:B69)</f>
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76">
+        <f>SUBTOTAL(9,B71:B75)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78">
+        <f>SUBTOTAL(9,B77:B77)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81">
+        <f>SUBTOTAL(9,B79:B80)</f>
+        <v>5.7499999999999996E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A83" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84">
+        <f>SUBTOTAL(9,B82:B83)</f>
+        <v>4.7500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A85" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86">
+        <f>SUBTOTAL(9,B85:B85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A87" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87">
+        <v>4.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A88" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B88">
+        <f>SUBTOTAL(9,B87:B87)</f>
+        <v>4.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A89" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89">
+        <v>0.30399999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A90" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90">
+        <v>3.3300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A91" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91">
+        <v>3.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92">
+        <v>6.1199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93">
+        <v>3.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94">
+        <v>6.1199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A95" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96">
+        <v>0.12239999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A97" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97">
+        <v>2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A98" t="s">
+        <v>28</v>
+      </c>
+      <c r="B98">
+        <v>2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A99" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99">
+        <v>5.04E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A100" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100">
+        <v>5.04E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A101" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101">
+        <v>5.04E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A102" t="s">
+        <v>28</v>
+      </c>
+      <c r="B102">
+        <v>5.04E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A103" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103">
+        <v>5.04E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A104" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104">
+        <v>5.04E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A105" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B105">
+        <f>SUBTOTAL(9,B89:B104)</f>
+        <v>1.3074999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A106" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106">
+        <v>5.04E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A107" t="s">
+        <v>29</v>
+      </c>
+      <c r="B107">
+        <v>5.04E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A108" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108">
+        <v>5.04E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A109" t="s">
+        <v>29</v>
+      </c>
+      <c r="B109">
+        <v>2.52E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A110" t="s">
+        <v>29</v>
+      </c>
+      <c r="B110">
+        <v>2.52E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A111" t="s">
+        <v>29</v>
+      </c>
+      <c r="B111">
+        <v>5.04E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A112" t="s">
+        <v>29</v>
+      </c>
+      <c r="B112">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A113" t="s">
+        <v>29</v>
+      </c>
+      <c r="B113">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A114" t="s">
+        <v>29</v>
+      </c>
+      <c r="B114">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A115" t="s">
+        <v>29</v>
+      </c>
+      <c r="B115">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A116" t="s">
+        <v>29</v>
+      </c>
+      <c r="B116">
+        <v>6.7500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A117" t="s">
+        <v>29</v>
+      </c>
+      <c r="B117">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A118" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A119" t="s">
+        <v>29</v>
+      </c>
+      <c r="B119">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A120" t="s">
+        <v>29</v>
+      </c>
+      <c r="B120">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A121" t="s">
+        <v>29</v>
+      </c>
+      <c r="B121">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A122" t="s">
+        <v>29</v>
+      </c>
+      <c r="B122">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A123" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B123">
+        <f>SUBTOTAL(9,B106:B122)</f>
+        <v>0.5445000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A124" t="s">
+        <v>30</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B125">
+        <f>SUBTOTAL(9,B124:B124)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A126" t="s">
+        <v>31</v>
+      </c>
+      <c r="B126">
+        <v>1.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A127" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127">
+        <v>1.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A128" t="s">
+        <v>31</v>
+      </c>
+      <c r="B128">
+        <v>1.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A129" t="s">
+        <v>31</v>
+      </c>
+      <c r="B129">
+        <v>1.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A130" t="s">
+        <v>31</v>
+      </c>
+      <c r="B130">
+        <v>1.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A131" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B131">
+        <f>SUBTOTAL(9,B126:B130)</f>
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A132" t="s">
+        <v>32</v>
+      </c>
+      <c r="B132">
+        <v>1.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B133">
+        <f>SUBTOTAL(9,B132:B132)</f>
+        <v>1.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22">
-        <f>SUBTOTAL(9,B2:B20)</f>
-        <v>1.1120000000000001</v>
+      <c r="B134">
+        <f>SUBTOTAL(9,B2:B132)</f>
+        <v>3.5391999999999983</v>
       </c>
     </row>
   </sheetData>
@@ -2579,8 +2996,401 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069001BC-1FCE-704F-829B-E2D997DAE969}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" outlineLevel="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" outlineLevel="2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" outlineLevel="2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" outlineLevel="1">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <f>SUBTOTAL(9,B2:B4)</f>
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" outlineLevel="2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" outlineLevel="2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" outlineLevel="2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" outlineLevel="2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" outlineLevel="1">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <f>SUBTOTAL(9,B6:B9)</f>
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" outlineLevel="2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" outlineLevel="1">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <f>SUBTOTAL(9,B11:B11)</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" outlineLevel="2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" outlineLevel="1">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <f>SUBTOTAL(9,B13:B13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" outlineLevel="2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" outlineLevel="2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" outlineLevel="1">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <f>SUBTOTAL(9,B15:B16)</f>
+        <v>0.11499999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" outlineLevel="2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" outlineLevel="1">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <f>SUBTOTAL(9,B18:B18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" outlineLevel="2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" outlineLevel="1">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <f>SUBTOTAL(9,B20:B20)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <f>SUBTOTAL(9,B2:B20)</f>
+        <v>1.1120000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47497CF-3254-1345-9C0E-EB1839AC1D2C}">
   <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" outlineLevel="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" outlineLevel="2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0.12659999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" outlineLevel="2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.11219999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" outlineLevel="1">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <f>SUBTOTAL(9,B2:B4)</f>
+        <v>0.3347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" outlineLevel="2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0.19220000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" outlineLevel="2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0.1087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" outlineLevel="2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.1061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" outlineLevel="1">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <f>SUBTOTAL(9,B6:B8)</f>
+        <v>0.40700000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" outlineLevel="2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" outlineLevel="1">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <f>SUBTOTAL(9,B10:B10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" outlineLevel="2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" outlineLevel="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <f>SUBTOTAL(9,B12:B12)</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" outlineLevel="2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" outlineLevel="1">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f>SUBTOTAL(9,B14:B14)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" outlineLevel="2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" outlineLevel="1">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <f>SUBTOTAL(9,B16:B16)</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" outlineLevel="2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" outlineLevel="2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" outlineLevel="1">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <f>SUBTOTAL(9,B18:B19)</f>
+        <v>0.68300000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <f>SUBTOTAL(9,B2:B19)</f>
+        <v>1.6807000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690A24D0-6C5C-6B4F-B9EA-AD55EB924394}">
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -2601,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.5899999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" hidden="1" outlineLevel="2">
@@ -2609,7 +3419,256 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0.12659999999999999</v>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <f>SUBTOTAL(9,B2:B3)</f>
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <f>SUBTOTAL(9,B5:B10)</f>
+        <v>0.44700000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>SUBTOTAL(9,B12:B12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <f>SUBTOTAL(9,B14:B14)</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <f>SUBTOTAL(9,B16:B16)</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <f>SUBTOTAL(9,B18:B18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <f>SUBTOTAL(9,B20:B24)</f>
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <f>SUBTOTAL(9,B26:B26)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <f>SUBTOTAL(9,B2:B26)</f>
+        <v>1.5570000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5941C23-B3C8-5C49-B2E5-B8C017564087}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" hidden="1" outlineLevel="2">
@@ -2617,32 +3676,32 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.11219999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A5" t="s">
+        <v>0</v>
       </c>
       <c r="B5">
-        <f>SUBTOTAL(9,B2:B4)</f>
-        <v>0.3347</v>
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.19220000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A7" t="s">
-        <v>1</v>
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.1087</v>
+        <f>SUBTOTAL(9,B2:B6)</f>
+        <v>0.35400000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:2" hidden="1" outlineLevel="2">
@@ -2650,118 +3709,164 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.1061</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A9" t="s">
+        <v>1</v>
       </c>
       <c r="B9">
-        <f>SUBTOTAL(9,B6:B8)</f>
-        <v>0.40700000000000003</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A11" t="s">
+        <v>1</v>
       </c>
       <c r="B11">
-        <f>SUBTOTAL(9,B10:B10)</f>
-        <v>0</v>
+        <v>9.1499999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>0.1019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A13" t="s">
+        <v>1</v>
       </c>
       <c r="B13">
-        <f>SUBTOTAL(9,B12:B12)</f>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A14" t="s">
-        <v>3</v>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
+        <f>SUBTOTAL(9,B8:B13)</f>
+        <v>0.54339999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
       <c r="B15">
-        <f>SUBTOTAL(9,B14:B14)</f>
-        <v>0.1</v>
+        <v>0.1033</v>
       </c>
     </row>
     <row r="16" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>7.5999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A17" t="s">
+        <v>2</v>
       </c>
       <c r="B17">
-        <f>SUBTOTAL(9,B16:B16)</f>
-        <v>7.5999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A18" t="s">
-        <v>5</v>
+        <v>9.2999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>0.40300000000000002</v>
+        <f>SUBTOTAL(9,B15:B17)</f>
+        <v>0.22059999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
-        <f>SUBTOTAL(9,B18:B19)</f>
-        <v>0.68300000000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f>SUBTOTAL(9,B19:B22)</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <f>SUBTOTAL(9,B24:B25)</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
-        <f>SUBTOTAL(9,B2:B19)</f>
-        <v>1.6807000000000001</v>
+      <c r="B27">
+        <f>SUBTOTAL(9,B2:B25)</f>
+        <v>1.2010000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2771,12 +3876,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690A24D0-6C5C-6B4F-B9EA-AD55EB924394}">
-  <dimension ref="A1:B28"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2716E597-54D5-194E-9FE7-5C7784FBB3A7}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B27"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2"/>
@@ -2794,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.7000000000000004E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" hidden="1" outlineLevel="2">
@@ -2802,90 +3907,920 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A4" t="s">
+        <v>0</v>
       </c>
       <c r="B4">
-        <f>SUBTOTAL(9,B2:B3)</f>
-        <v>0.157</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>6.9000000000000006E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>7.4999999999999997E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>7.2999999999999995E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>5.1999999999999998E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A11" t="s">
+        <v>0</v>
       </c>
       <c r="B11">
-        <f>SUBTOTAL(9,B5:B10)</f>
-        <v>0.44700000000000006</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <f>SUBTOTAL(9,B2:B15)</f>
+        <v>0.2400000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <f>SUBTOTAL(9,B17:B26)</f>
+        <v>0.18000000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
+      <c r="B28">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <f>SUBTOTAL(9,B28:B30)</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <f>SUBTOTAL(9,B32:B36)</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <f>SUBTOTAL(9,B38:B42)</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45">
+        <f>SUBTOTAL(9,B44:B44)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58">
+        <f>SUBTOTAL(9,B46:B57)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66">
+        <f>SUBTOTAL(9,B59:B65)</f>
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71">
+        <f>SUBTOTAL(9,B67:B70)</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73">
+        <f>SUBTOTAL(9,B72:B72)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75">
+        <f>SUBTOTAL(9,B74:B74)</f>
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77">
+        <f>SUBTOTAL(9,B76:B76)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A78" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78">
+        <v>4.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79">
+        <f>SUBTOTAL(9,B78:B78)</f>
+        <v>4.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80">
+        <v>3.8699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81">
+        <v>3.8699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82">
+        <v>3.8699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83">
+        <v>3.8699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84">
+        <v>3.8699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A85" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A87" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87">
+        <v>3.3300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88">
+        <v>3.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A89" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89">
+        <v>0.12239999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A90" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90">
+        <v>0.27539999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A91" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91">
+        <v>0.12239999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92">
+        <v>2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93">
+        <v>5.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94">
+        <v>5.04E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A95" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95">
+        <v>5.04E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96">
+        <v>5.04E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A97" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97">
+        <v>7.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A98" t="s">
+        <v>28</v>
+      </c>
+      <c r="B98">
+        <v>5.04E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A99" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99">
+        <f>SUBTOTAL(9,B80:B98)</f>
+        <v>1.2464999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100">
+        <f>SUBTOTAL(9,B2:B98)</f>
+        <v>2.5704000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58D9512-FD58-7A45-90C3-4FD71A288314}">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <f>SUBTOTAL(9,B2:B5)</f>
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <f>SUBTOTAL(9,B7:B9)</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" outlineLevel="1" collapsed="1">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A13" t="s">
+        <v>20</v>
       </c>
       <c r="B13">
-        <f>SUBTOTAL(9,B12:B12)</f>
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:2" hidden="1" outlineLevel="2">
@@ -2893,7 +4828,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="15" spans="1:2" outlineLevel="1" collapsed="1">
@@ -2901,30 +4836,30 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <f>SUBTOTAL(9,B14:B14)</f>
-        <v>0.09</v>
+        <f>SUBTOTAL(9,B11:B14)</f>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>0.06</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" outlineLevel="1" collapsed="1">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <f>SUBTOTAL(9,B16:B16)</f>
-        <v>0.06</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2932,7 +4867,7 @@
     </row>
     <row r="19" spans="1:2" outlineLevel="1" collapsed="1">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <f>SUBTOTAL(9,B18:B18)</f>
@@ -2941,77 +4876,269 @@
     </row>
     <row r="20" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="21" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" hidden="1" outlineLevel="2">
-      <c r="A22" t="s">
-        <v>5</v>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>0.18</v>
+        <f>SUBTOTAL(9,B20:B21)</f>
+        <v>0.08</v>
       </c>
     </row>
     <row r="23" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B23">
-        <v>8.3000000000000004E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="24" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B24">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="25" spans="1:2" outlineLevel="1" collapsed="1">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B25">
-        <f>SUBTOTAL(9,B20:B24)</f>
-        <v>0.73299999999999998</v>
+        <f>SUBTOTAL(9,B23:B24)</f>
+        <v>0.08</v>
       </c>
     </row>
     <row r="26" spans="1:2" hidden="1" outlineLevel="2">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" outlineLevel="1" collapsed="1">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <f>SUBTOTAL(9,B26:B26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <f>SUBTOTAL(9,B28:B29)</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
+    <row r="35" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <f>SUBTOTAL(9,B31:B34)</f>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f>SUBTOTAL(9,B36:B36)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <f>SUBTOTAL(9,B38:B38)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43">
+        <f>SUBTOTAL(9,B40:B42)</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48">
+        <f>SUBTOTAL(9,B44:B47)</f>
+        <v>0.24000000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" outlineLevel="1" collapsed="1">
+      <c r="A50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50">
+        <f>SUBTOTAL(9,B49:B49)</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B28">
-        <f>SUBTOTAL(9,B2:B26)</f>
-        <v>1.5570000000000002</v>
+      <c r="B51">
+        <f>SUBTOTAL(9,B2:B49)</f>
+        <v>1.5860000000000007</v>
       </c>
     </row>
   </sheetData>
